--- a/산출물/요구사항정의서_2360340017_정수영.xlsx
+++ b/산출물/요구사항정의서_2360340017_정수영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suyoung/poly/FinalProject_KOPO/FinalProject_KOPO/산출물/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A4BB47-CFB5-0B47-9E68-7E7A520C0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CBDC2B-6B95-2B47-8FB3-F1C286CCD3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>현업요구사항정의서</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -421,34 +421,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">오프라인/온라인으로 상담 가능 
+    <t>사용자가 상담을 받은 후, 상담 내용과 추천받은 보험 상품에 대한 정보를 기록하여 관리 가능. 이를 통해 추후 상담 내역을 쉽게 확인 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자들 간에 보험 상품에 대한 정보를 공유하고, 서로의 경험과 조언을 나눌 수 있는 온라인 커뮤니티(게시판)를 구축, 이를 통해 다양한 관점에서의 정보를 얻을 수 있으며, 더 나은 보험 결정 가능.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01, MAIN02를 통해 사용자의 위험질병군이 산정되면, 이에 맞는 보험상품을 3-5개 추천. 
+"바로가입하기" 버튼을 통해 해당 보험사에게 가입 요청 전달 
+"상담하기" 버튼을 통해 보험설계사와 상담 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">입력한 연령대에 따라, 사망원인 질병 중 상위 5개의 질병을 산정 
+질병 데이터를 기반으로, 질병에 따른 위험군 정보를 산정함. 
+예를 들어, 폐암위험군의 경우 40대 남성, 흡연력 5년이상, 최근 폐 절제술 실행, 최근 혈압 160/110 등 기존 질병데이터를 바탕으로 산정함. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험상품 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주요 보험사의 여러 보험상품을 조회, 비교하는 기능. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인/온라인으로 상담 가능 
 온라인 상담 
 - 채팅을 통한 상담 
 - 화상연결을 통한 상담 
 - 게시판을 통한 상담 
 오프라인 상담 
-장소, 시간 및 간략한 사전정보를 입력하여, 예약 확정
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 상담을 받은 후, 상담 내용과 추천받은 보험 상품에 대한 정보를 기록하여 관리 가능. 이를 통해 추후 상담 내역을 쉽게 확인 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자들 간에 보험 상품에 대한 정보를 공유하고, 서로의 경험과 조언을 나눌 수 있는 온라인 커뮤니티(게시판)를 구축, 이를 통해 다양한 관점에서의 정보를 얻을 수 있으며, 더 나은 보험 결정 가능.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN01, MAIN02를 통해 사용자의 위험질병군이 산정되면, 이에 맞는 보험상품을 3-5개 추천. 
-"바로가입하기" 버튼을 통해 해당 보험사에게 가입 요청 전달 
-"상담하기" 버튼을 통해 보험설계사와 상담 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">입력한 연령대에 따라, 사망원인 질병 중 상위 5개의 질병을 산정 
-질병 데이터를 기반으로, 질병에 따른 위험군 정보를 산정함. 
-예를 들어, 폐암위험군의 경우 40대 남성, 흡연력 5년이상, 최근 폐 절제술 실행, 최근 혈압 160/110 등 기존 질병데이터를 바탕으로 산정함. </t>
+장소, 시간 및 간략한 사전정보를 입력하여, 예약 확정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +940,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1076,6 +1087,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:G7"/>
@@ -1482,7 +1502,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="39"/>
@@ -1528,7 +1548,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
@@ -1537,7 +1557,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="110" customHeight="1">
+    <row r="8" spans="1:9" ht="44" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>75</v>
       </c>
@@ -1545,45 +1565,45 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="124" customHeight="1">
+    <row r="9" spans="1:9" ht="129" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="46.5" customHeight="1">
+    <row r="10" spans="1:9" ht="144" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
@@ -1591,13 +1611,13 @@
         <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -1606,7 +1626,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="49.5" customHeight="1">
+    <row r="11" spans="1:9" ht="46.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>68</v>
       </c>
@@ -1614,22 +1634,22 @@
         <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="82" customHeight="1">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="64" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -1637,13 +1657,13 @@
         <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
@@ -1652,27 +1672,39 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+    <row r="13" spans="1:9" ht="82" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="59.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="A15" s="2"/>
@@ -1817,7 +1849,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1916,9 +1948,20 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E13:G13"/>
+  <mergeCells count="15">
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="C3:E3"/>
@@ -1927,15 +1970,16 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"기능,인터페이스,기술,기본요건"</formula1>
     </dataValidation>
   </dataValidations>
